--- a/tempXLfile1.xlsx
+++ b/tempXLfile1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcdrns\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcdrns\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3538CA-75E2-4FA8-AB3E-07F3B9C34776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EF454C-E16D-4B79-8B6F-BFF25CD1A2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>check_in_date_time</t>
   </si>
@@ -42,31 +42,7 @@
     <t>phone_no</t>
   </si>
   <si>
-    <t>Julian</t>
-  </si>
-  <si>
-    <t>Franco</t>
-  </si>
-  <si>
-    <t>natalia</t>
-  </si>
-  <si>
-    <t>Nana</t>
-  </si>
-  <si>
-    <t>Martis</t>
-  </si>
-  <si>
-    <t>Guison</t>
-  </si>
-  <si>
-    <t>Bretus</t>
-  </si>
-  <si>
-    <t>Zilon</t>
-  </si>
-  <si>
-    <t>Aamon</t>
+    <t>rocktim</t>
   </si>
 </sst>
 </file>
@@ -393,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,98 +405,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>8867588473</v>
+        <v>1423525334</v>
       </c>
       <c r="C2" s="2">
         <v>45014.395833333336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>9127024200</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45014.395833333336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>776587487364</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45015.395833333336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>93487763</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45016.395833333336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>93487763</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45017.395833333336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>93487763</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45018.395833333336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>93487763</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45019.395833333336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>93487763</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45020.395833333336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>93487763</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45021.395833333336</v>
       </c>
     </row>
   </sheetData>
